--- a/legislator/property/output/normal/邱議瑩_2011-11-25_財產申報表_tmpab161.xlsx
+++ b/legislator/property/output/normal/邱議瑩_2011-11-25_財產申報表_tmpab161.xlsx
@@ -9,27 +9,16 @@
   <sheets>
     <sheet name="土地" sheetId="1" r:id="rId1"/>
     <sheet name="建物" sheetId="2" r:id="rId2"/>
-    <sheet name="船舶" sheetId="3" r:id="rId3"/>
-    <sheet name="汽車" sheetId="4" r:id="rId4"/>
-    <sheet name="航空器" sheetId="5" r:id="rId5"/>
-    <sheet name="現金" sheetId="6" r:id="rId6"/>
-    <sheet name="存款" sheetId="7" r:id="rId7"/>
-    <sheet name="股票" sheetId="8" r:id="rId8"/>
-    <sheet name="債券" sheetId="9" r:id="rId9"/>
-    <sheet name="基金受益憑證" sheetId="10" r:id="rId10"/>
-    <sheet name="其他有價證券" sheetId="11" r:id="rId11"/>
-    <sheet name="具有相當價值之財產" sheetId="12" r:id="rId12"/>
-    <sheet name="保險" sheetId="13" r:id="rId13"/>
-    <sheet name="債權" sheetId="14" r:id="rId14"/>
-    <sheet name="債務" sheetId="15" r:id="rId15"/>
-    <sheet name="事業投資" sheetId="16" r:id="rId16"/>
+    <sheet name="汽車" sheetId="3" r:id="rId3"/>
+    <sheet name="存款" sheetId="4" r:id="rId4"/>
+    <sheet name="保險" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="66">
   <si>
     <t>i地坐落</t>
   </si>
@@ -88,66 +77,54 @@
     <t>變動時間</t>
   </si>
   <si>
+    <t>建物標示</t>
+  </si>
+  <si>
+    <t>高雄市鳥松區育才段02053-000 建號</t>
+  </si>
+  <si>
+    <t>建</t>
+  </si>
+  <si>
+    <t>建物標</t>
+  </si>
+  <si>
+    <t>物</t>
+  </si>
+  <si>
+    <t>示</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>變</t>
+  </si>
+  <si>
+    <t>動</t>
+  </si>
+  <si>
+    <t>情</t>
+  </si>
+  <si>
     <t>變動原因</t>
   </si>
   <si>
+    <t>形</t>
+  </si>
+  <si>
     <t>變動時之價額</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>高雄市鳥松區育才段02053-000 建號</t>
-  </si>
-  <si>
-    <t>建</t>
-  </si>
-  <si>
-    <t>建物標</t>
-  </si>
-  <si>
-    <t>物</t>
-  </si>
-  <si>
-    <t>示</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>變</t>
-  </si>
-  <si>
-    <t>動</t>
-  </si>
-  <si>
-    <t>情</t>
-  </si>
-  <si>
-    <t>形</t>
-  </si>
-  <si>
-    <t>種</t>
-  </si>
-  <si>
-    <t>類</t>
-  </si>
-  <si>
-    <t>總啼教</t>
-  </si>
-  <si>
-    <t>船籍港</t>
+    <t>廠牌型號</t>
+  </si>
+  <si>
+    <t>汽缸容量</t>
   </si>
   <si>
     <t>所有人</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
     <t>NISSAN</t>
   </si>
   <si>
@@ -163,13 +140,10 @@
     <t>(超過五年）</t>
   </si>
   <si>
-    <t>型式</t>
-  </si>
-  <si>
-    <t>製造廠名稱</t>
-  </si>
-  <si>
-    <t>國籍標示及编號</t>
+    <t>存放機構(應敘明分支機構）</t>
+  </si>
+  <si>
+    <t>種類</t>
   </si>
   <si>
     <t>幣別</t>
@@ -181,12 +155,6 @@
     <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
     <t>臺灣銀行城中分行</t>
   </si>
   <si>
@@ -220,63 +188,6 @@
     <t>新臺幣</t>
   </si>
   <si>
-    <t>名稱</t>
-  </si>
-  <si>
-    <t>股數</t>
-  </si>
-  <si>
-    <t>票面價額</t>
-  </si>
-  <si>
-    <t>外幣幣別</t>
-  </si>
-  <si>
-    <t>名</t>
-  </si>
-  <si>
-    <t>稱</t>
-  </si>
-  <si>
-    <t>代碼</t>
-  </si>
-  <si>
-    <t>買賣機構</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>受託投資機構</t>
-  </si>
-  <si>
-    <t>票面價額(單位淨值）</t>
-  </si>
-  <si>
-    <t>所</t>
-  </si>
-  <si>
-    <t>有</t>
-  </si>
-  <si>
-    <t>人</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>項/件</t>
-  </si>
-  <si>
-    <t>價額</t>
-  </si>
-  <si>
     <t>保險公司</t>
   </si>
   <si>
@@ -286,9 +197,6 @@
     <t>要保人</t>
   </si>
   <si>
-    <t>備註</t>
-  </si>
-  <si>
     <t>國泰人壽</t>
   </si>
   <si>
@@ -308,48 +216,6 @@
   </si>
   <si>
     <t>邱議璧</t>
-  </si>
-  <si>
-    <t>債</t>
-  </si>
-  <si>
-    <t>權</t>
-  </si>
-  <si>
-    <t>債務人及地址</t>
-  </si>
-  <si>
-    <t>餘</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
-    <t>債務</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>投資人</t>
-  </si>
-  <si>
-    <t>投資</t>
-  </si>
-  <si>
-    <t>事業名</t>
-  </si>
-  <si>
-    <t>投資事業地址</t>
-  </si>
-  <si>
-    <t>投</t>
-  </si>
-  <si>
-    <t>資—金額</t>
   </si>
 </sst>
 </file>
@@ -708,13 +574,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -736,10 +602,8 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>14</v>
       </c>
@@ -764,10 +628,8 @@
       <c r="H2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>17</v>
       </c>
@@ -791,351 +653,6 @@
       </c>
       <c r="H3" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:8">
-      <c r="B1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:11">
-      <c r="B1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:5">
-      <c r="B1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>90</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>91</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>92</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>93</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>94</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:11">
-      <c r="B1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:J1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:10">
-      <c r="B1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:J1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:10">
-      <c r="B1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1153,7 +670,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1180,13 +697,13 @@
         <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2">
         <v>133.61</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>12</v>
@@ -1207,24 +724,24 @@
         <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1232,10 +749,10 @@
         <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
@@ -1250,10 +767,10 @@
         <v>18</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1262,45 +779,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:9">
-      <c r="B1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -1310,13 +788,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -1333,7 +811,7 @@
         <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2">
         <v>3500</v>
@@ -1342,13 +820,13 @@
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1356,7 +834,7 @@
         <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2">
         <v>3000</v>
@@ -1365,13 +843,13 @@
         <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1379,70 +857,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:8">
-      <c r="B1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:5">
-      <c r="B1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G9"/>
   <sheetViews>
@@ -1452,22 +867,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1475,13 +890,13 @@
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>12</v>
@@ -1498,13 +913,13 @@
         <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>12</v>
@@ -1519,13 +934,13 @@
         <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>12</v>
@@ -1540,13 +955,13 @@
         <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>12</v>
@@ -1561,13 +976,13 @@
         <v>56</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>12</v>
@@ -1582,13 +997,13 @@
         <v>57</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>12</v>
@@ -1603,13 +1018,13 @@
         <v>58</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>12</v>
@@ -1624,13 +1039,13 @@
         <v>59</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>12</v>
@@ -1645,74 +1060,93 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>90</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>91</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>92</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>93</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>94</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:J1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:10">
-      <c r="B1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/邱議瑩_2011-11-25_財產申報表_tmpab161.xlsx
+++ b/legislator/property/output/normal/邱議瑩_2011-11-25_財產申報表_tmpab161.xlsx
@@ -18,9 +18,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="66">
-  <si>
-    <t>i地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="78">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>高雄市鳥松區育才段03160000地號</t>
+  </si>
+  <si>
+    <t>10000分之36</t>
+  </si>
+  <si>
+    <t>邱議瑩</t>
+  </si>
+  <si>
+    <t>99年06月18日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>17000000(合購價）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-11-25</t>
+  </si>
+  <si>
+    <t>tmpab161</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -41,72 +113,36 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>高雄市鳥松區育才段0316-0000 地號</t>
-  </si>
-  <si>
-    <t>土 地</t>
-  </si>
-  <si>
-    <t>坐</t>
-  </si>
-  <si>
-    <t>10000分之 36</t>
-  </si>
-  <si>
-    <t>落</t>
-  </si>
-  <si>
-    <t>邱議瑩</t>
-  </si>
-  <si>
-    <t>面積（平方 公尺）</t>
-  </si>
-  <si>
-    <t>99年06月 18日</t>
-  </si>
-  <si>
-    <t>權利範圍 (持分）</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>17,000，000(合 購價）</t>
+    <t>高雄市鳥松區育才段02053000建號</t>
+  </si>
+  <si>
+    <t>建</t>
+  </si>
+  <si>
+    <t>建物標</t>
+  </si>
+  <si>
+    <t>物</t>
+  </si>
+  <si>
+    <t>示</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>變</t>
+  </si>
+  <si>
+    <t>動</t>
+  </si>
+  <si>
+    <t>情</t>
   </si>
   <si>
     <t>變動時間</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>高雄市鳥松區育才段02053-000 建號</t>
-  </si>
-  <si>
-    <t>建</t>
-  </si>
-  <si>
-    <t>建物標</t>
-  </si>
-  <si>
-    <t>物</t>
-  </si>
-  <si>
-    <t>示</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>變</t>
-  </si>
-  <si>
-    <t>動</t>
-  </si>
-  <si>
-    <t>情</t>
-  </si>
-  <si>
     <t>變動原因</t>
   </si>
   <si>
@@ -128,13 +164,13 @@
     <t>NISSAN</t>
   </si>
   <si>
-    <t>93年06月 18日</t>
-  </si>
-  <si>
-    <t>91年08月 27日</t>
-  </si>
-  <si>
-    <t>2,000，000(超 過五年）</t>
+    <t>93年06月18日</t>
+  </si>
+  <si>
+    <t>91年08月27日</t>
+  </si>
+  <si>
+    <t>2000000(超過五年）</t>
   </si>
   <si>
     <t>(超過五年）</t>
@@ -161,7 +197,7 @@
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
-    <t>臺灣新光商業銀行屏東分 行</t>
+    <t>臺灣新光商業銀行屏東分行</t>
   </si>
   <si>
     <t>彰化商業銀行屏東分行</t>
@@ -574,13 +610,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -602,57 +638,73 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>14538.71</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="2">
+        <v>913</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="2">
         <v>14</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>17</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -670,49 +722,49 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2">
         <v>133.61</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2">
         <v>17000000</v>
@@ -721,56 +773,56 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -788,68 +840,68 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2">
         <v>3500</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2">
         <v>3000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -867,39 +919,39 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2">
         <v>2000</v>
@@ -910,19 +962,19 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -931,19 +983,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -952,19 +1004,19 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -973,19 +1025,19 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -994,19 +1046,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1015,19 +1067,19 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1036,19 +1088,19 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1070,83 +1122,83 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/邱議瑩_2011-11-25_財產申報表_tmpab161.xlsx
+++ b/legislator/property/output/normal/邱議瑩_2011-11-25_財產申報表_tmpab161.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="58">
   <si>
     <t>name</t>
   </si>
@@ -62,10 +62,16 @@
     <t>index</t>
   </si>
   <si>
-    <t>高雄市鳥松區育才段03160000地號</t>
-  </si>
-  <si>
-    <t>10000分之36</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>高雄市鳥松區育才段02053000建號</t>
+  </si>
+  <si>
+    <t>全部</t>
   </si>
   <si>
     <t>邱議瑩</t>
@@ -77,66 +83,33 @@
     <t>買賣</t>
   </si>
   <si>
-    <t>17000000(合購價）</t>
-  </si>
-  <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2011-11-25</t>
-  </si>
-  <si>
-    <t>tmpab161</t>
-  </si>
-  <si>
-    <t>建物標示</t>
+    <t>建</t>
+  </si>
+  <si>
+    <t>建物標</t>
+  </si>
+  <si>
+    <t>物</t>
+  </si>
+  <si>
+    <t>示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
   </si>
   <si>
+    <t>變</t>
+  </si>
+  <si>
     <t>權利範圍(持分）</t>
   </si>
   <si>
+    <t>動</t>
+  </si>
+  <si>
     <t>所有權人</t>
   </si>
   <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>高雄市鳥松區育才段02053000建號</t>
-  </si>
-  <si>
-    <t>建</t>
-  </si>
-  <si>
-    <t>建物標</t>
-  </si>
-  <si>
-    <t>物</t>
-  </si>
-  <si>
-    <t>示</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>變</t>
-  </si>
-  <si>
-    <t>動</t>
-  </si>
-  <si>
     <t>情</t>
   </si>
   <si>
@@ -152,48 +125,30 @@
     <t>變動時之價額</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
     <t>NISSAN</t>
   </si>
   <si>
     <t>93年06月18日</t>
   </si>
   <si>
+    <t>2000000(超過五年）</t>
+  </si>
+  <si>
     <t>91年08月27日</t>
   </si>
   <si>
-    <t>2000000(超過五年）</t>
-  </si>
-  <si>
     <t>(超過五年）</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>臺灣銀行城中分行</t>
   </si>
   <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>美金</t>
+  </si>
+  <si>
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
@@ -212,25 +167,10 @@
     <t>京城商業銀行營業部</t>
   </si>
   <si>
-    <t>活期存款</t>
-  </si>
-  <si>
     <t>定期存款</t>
   </si>
   <si>
-    <t>美金</t>
-  </si>
-  <si>
     <t>新臺幣</t>
-  </si>
-  <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
   </si>
   <si>
     <t>國泰人壽</t>
@@ -610,13 +550,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="B1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="2:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -659,52 +599,11 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2">
-        <v>14538.71</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="2">
-        <v>913</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="2">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -714,7 +613,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -722,107 +621,80 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="C1" s="1">
+        <v>133.61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="H1" s="1">
+        <v>17000000</v>
       </c>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="2">
-        <v>133.61</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2">
-        <v>17000000</v>
-      </c>
-      <c r="I2" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1">
-        <v>22</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -832,7 +704,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -840,68 +712,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
+      </c>
+      <c r="C1" s="1">
+        <v>3500</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>34</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="2">
-        <v>3000</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -911,7 +760,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -919,191 +768,168 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>18</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G1" s="1">
+        <v>59440</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2">
-        <v>2000</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>59440</v>
+        <v>5905403</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
+        <v>50</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>5905403</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
+        <v>51</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>300000</v>
+        <v>1800000</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>1800000</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>2835</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>2057</v>
+        <v>102866</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>102866</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>55</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
         <v>53059</v>
       </c>
     </row>
@@ -1114,7 +940,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1122,83 +948,69 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>90</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/邱議瑩_2011-11-25_財產申報表_tmpab161.xlsx
+++ b/legislator/property/output/normal/邱議瑩_2011-11-25_財產申報表_tmpab161.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="51">
   <si>
     <t>name</t>
   </si>
@@ -68,61 +68,40 @@
     <t>total</t>
   </si>
   <si>
+    <t>高雄市鳥松區育才段03160000地號</t>
+  </si>
+  <si>
+    <t>10000分之36</t>
+  </si>
+  <si>
+    <t>邱議瑩</t>
+  </si>
+  <si>
+    <t>99年06月18日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>17000000(合購價）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-11-25</t>
+  </si>
+  <si>
+    <t>tmpab161</t>
+  </si>
+  <si>
     <t>高雄市鳥松區育才段02053000建號</t>
   </si>
   <si>
     <t>全部</t>
-  </si>
-  <si>
-    <t>邱議瑩</t>
-  </si>
-  <si>
-    <t>99年06月18日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>建</t>
-  </si>
-  <si>
-    <t>建物標</t>
-  </si>
-  <si>
-    <t>物</t>
-  </si>
-  <si>
-    <t>示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>變</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>動</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>情</t>
-  </si>
-  <si>
-    <t>變動時間</t>
-  </si>
-  <si>
-    <t>變動原因</t>
-  </si>
-  <si>
-    <t>形</t>
-  </si>
-  <si>
-    <t>變動時之價額</t>
   </si>
   <si>
     <t>NISSAN</t>
@@ -550,13 +529,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:Q1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:17">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -604,6 +583,59 @@
       </c>
       <c r="Q1" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2">
+        <v>14538.71</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="2">
+        <v>913</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.0036</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>52.339356</v>
       </c>
     </row>
   </sheetData>
@@ -613,88 +645,113 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2">
         <v>133.61</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H2" s="2">
         <v>17000000</v>
       </c>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1">
-        <v>21</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <v>22</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="L2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="2">
+        <v>913</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>34</v>
+      <c r="O2" s="2">
+        <v>19</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>133.61</v>
       </c>
     </row>
   </sheetData>
@@ -704,7 +761,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -712,7 +769,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1">
         <v>3500</v>
@@ -721,36 +778,59 @@
         <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>30</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3000</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -760,7 +840,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -768,13 +848,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
@@ -788,148 +868,171 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2">
+        <v>2000</v>
+      </c>
       <c r="G2" s="2">
-        <v>5905403</v>
+        <v>59440</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>300000</v>
+        <v>5905403</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>1800000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>2835</v>
+        <v>1800000</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>2057</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>102866</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
+        <v>102866</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>51</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2">
         <v>53059</v>
       </c>
     </row>
@@ -940,7 +1043,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -948,10 +1051,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
@@ -959,13 +1062,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
@@ -973,13 +1076,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
@@ -987,13 +1090,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
@@ -1001,16 +1104,30 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>57</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>86</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/邱議瑩_2011-11-25_財產申報表_tmpab161.xlsx
+++ b/legislator/property/output/normal/邱議瑩_2011-11-25_財產申報表_tmpab161.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="52">
   <si>
     <t>name</t>
   </si>
@@ -104,16 +104,19 @@
     <t>全部</t>
   </si>
   <si>
+    <t>capacity</t>
+  </si>
+  <si>
     <t>NISSAN</t>
   </si>
   <si>
     <t>93年06月18日</t>
   </si>
   <si>
+    <t>91年08月27日</t>
+  </si>
+  <si>
     <t>2000000(超過五年）</t>
-  </si>
-  <si>
-    <t>91年08月27日</t>
   </si>
   <si>
     <t>(超過五年）</t>
@@ -761,38 +764,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1">
-        <v>3500</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2">
         <v>3500</v>
@@ -801,21 +825,42 @@
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>32</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="2">
+        <v>913</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" s="2">
         <v>3000</v>
@@ -830,7 +875,28 @@
         <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="2">
+        <v>913</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="2">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -848,13 +914,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
@@ -871,13 +937,13 @@
         <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
@@ -894,13 +960,13 @@
         <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
@@ -915,13 +981,13 @@
         <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>
@@ -936,13 +1002,13 @@
         <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
@@ -957,13 +1023,13 @@
         <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>18</v>
@@ -978,13 +1044,13 @@
         <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>18</v>
@@ -999,13 +1065,13 @@
         <v>50</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>18</v>
@@ -1020,13 +1086,13 @@
         <v>51</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>18</v>
@@ -1051,10 +1117,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
@@ -1065,10 +1131,10 @@
         <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
@@ -1079,10 +1145,10 @@
         <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
@@ -1093,10 +1159,10 @@
         <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
@@ -1107,10 +1173,10 @@
         <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
@@ -1121,13 +1187,13 @@
         <v>86</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/邱議瑩_2011-11-25_財產申報表_tmpab161.xlsx
+++ b/legislator/property/output/normal/邱議瑩_2011-11-25_財產申報表_tmpab161.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="54">
   <si>
     <t>name</t>
   </si>
@@ -104,6 +104,9 @@
     <t>全部</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -120,6 +123,9 @@
   </si>
   <si>
     <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>臺灣銀行城中分行</t>
@@ -730,7 +736,7 @@
         <v>17000000</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>23</v>
@@ -775,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -816,7 +822,7 @@
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2">
         <v>3500</v>
@@ -825,16 +831,16 @@
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
@@ -860,7 +866,7 @@
         <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2">
         <v>3000</v>
@@ -869,16 +875,16 @@
         <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>23</v>
@@ -914,13 +920,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
@@ -937,13 +943,13 @@
         <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
@@ -960,13 +966,13 @@
         <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
@@ -981,13 +987,13 @@
         <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>
@@ -1002,13 +1008,13 @@
         <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
@@ -1023,13 +1029,13 @@
         <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>18</v>
@@ -1044,13 +1050,13 @@
         <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>18</v>
@@ -1065,13 +1071,13 @@
         <v>50</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>18</v>
@@ -1086,13 +1092,13 @@
         <v>51</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>18</v>
@@ -1117,10 +1123,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
@@ -1131,10 +1137,10 @@
         <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
@@ -1145,10 +1151,10 @@
         <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
@@ -1159,10 +1165,10 @@
         <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
@@ -1173,10 +1179,10 @@
         <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
@@ -1187,13 +1193,13 @@
         <v>86</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/邱議瑩_2011-11-25_財產申報表_tmpab161.xlsx
+++ b/legislator/property/output/normal/邱議瑩_2011-11-25_財產申報表_tmpab161.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="58">
   <si>
     <t>name</t>
   </si>
@@ -128,37 +128,49 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>臺灣銀行城中分行</t>
   </si>
   <si>
+    <t>臺灣銀行群賢分行</t>
+  </si>
+  <si>
+    <t>臺灣新光商業銀行屏東分行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行屏東分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行營業部</t>
+  </si>
+  <si>
+    <t>元大商業銀行營業部</t>
+  </si>
+  <si>
+    <t>京城商業銀行營業部</t>
+  </si>
+  <si>
     <t>活期存款</t>
   </si>
   <si>
+    <t>定期存款</t>
+  </si>
+  <si>
     <t>美金</t>
   </si>
   <si>
-    <t>臺灣銀行群賢分行</t>
-  </si>
-  <si>
-    <t>臺灣新光商業銀行屏東分行</t>
-  </si>
-  <si>
-    <t>彰化商業銀行屏東分行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行營業部</t>
-  </si>
-  <si>
-    <t>元大商業銀行營業部</t>
-  </si>
-  <si>
-    <t>京城商業銀行營業部</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
     <t>新臺幣</t>
+  </si>
+  <si>
+    <t>deposit</t>
   </si>
   <si>
     <t>國泰人壽</t>
@@ -912,13 +924,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>36</v>
       </c>
@@ -929,183 +941,359 @@
         <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1">
-        <v>2000</v>
-      </c>
-      <c r="G1" s="1">
-        <v>59440</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="2">
-        <v>2000</v>
-      </c>
-      <c r="G2" s="2">
         <v>59440</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="2">
+        <v>913</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>5905403</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="2">
+        <v>913</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2">
+        <v>300000</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="2">
+        <v>913</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="2">
         <v>46</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>1800000</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="2">
+        <v>913</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>2835</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="2">
+        <v>913</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>2057</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="2">
+        <v>913</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>50</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>102866</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="2">
+        <v>913</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>51</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>53059</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="2">
+        <v>913</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="2">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1123,10 +1311,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
@@ -1137,10 +1325,10 @@
         <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
@@ -1151,10 +1339,10 @@
         <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
@@ -1165,10 +1353,10 @@
         <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
@@ -1179,10 +1367,10 @@
         <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
@@ -1193,13 +1381,13 @@
         <v>86</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/邱議瑩_2011-11-25_財產申報表_tmpab161.xlsx
+++ b/legislator/property/output/normal/邱議瑩_2011-11-25_財產申報表_tmpab161.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="60">
   <si>
     <t>name</t>
   </si>
@@ -173,6 +173,9 @@
     <t>deposit</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>國泰人壽</t>
   </si>
   <si>
@@ -192,6 +195,9 @@
   </si>
   <si>
     <t>邱議璧</t>
+  </si>
+  <si>
+    <t>insurance</t>
   </si>
 </sst>
 </file>
@@ -1303,91 +1309,217 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="2">
+        <v>913</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="2">
+        <v>913</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="2">
+        <v>913</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="2">
+        <v>913</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>86</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="2">
+        <v>913</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="2">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
